--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p14_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p14_data.xlsx
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
